--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.4_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2399604590052487</v>
+        <v>0.2463298857568411</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2399604590052487, 'ngram_match_score': 0.11037123663050383, 'weighted_ngram_match_score': 0.1275607665879433, 'syntax_match_score': 0.51171875, 'dataflow_match_score': 0.21019108280254778}</t>
+          <t>{'codebleu': 0.24632988575684106, 'ngram_match_score': 0.11037123663050383, 'weighted_ngram_match_score': 0.1275607665879433, 'syntax_match_score': 0.51171875, 'dataflow_match_score': 0.2356687898089172}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.4_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2463298857568411</v>
+        <v>0.2526993125084334</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.24632988575684106, 'ngram_match_score': 0.11037123663050383, 'weighted_ngram_match_score': 0.1275607665879433, 'syntax_match_score': 0.51171875, 'dataflow_match_score': 0.2356687898089172}</t>
+          <t>{'codebleu': 0.2526993125084334, 'ngram_match_score': 0.11037123663050383, 'weighted_ngram_match_score': 0.1275607665879433, 'syntax_match_score': 0.51171875, 'dataflow_match_score': 0.2611464968152866}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
